--- a/Love Babbar DSA 450/FINAL450 Love Babbar.xlsx
+++ b/Love Babbar DSA 450/FINAL450 Love Babbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NEW_DATA\PP-9 pepcoding\Love Babbar DSA 450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C19DF3-075B-4DC5-AB6B-73804647ECAE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56F0087-1B7E-4F5D-B221-05BF0719CA1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="475">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1741,6 +1741,9 @@
     mistake that is probable can be when you are applying binarty search remember when to do n-1 and when to do m-1? 
     apply binary search and if the element would be present then you will get it otherwise return false
     tc O(Math.max(log n, log m)) =&gt; O(log n) sc O(1)</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -2212,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2808,7 +2811,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>4</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">

--- a/Love Babbar DSA 450/FINAL450 Love Babbar.xlsx
+++ b/Love Babbar DSA 450/FINAL450 Love Babbar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NEW_DATA\PP-9 pepcoding\Love Babbar DSA 450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56F0087-1B7E-4F5D-B221-05BF0719CA1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F214A229-4845-49AD-82E1-65C05A69C108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1837,7 +1837,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1847,6 +1847,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1864,7 +1876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1898,6 +1910,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2215,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2720,6 +2734,7 @@
       <c r="C46" s="4" t="s">
         <v>471</v>
       </c>
+      <c r="D46" s="16"/>
     </row>
     <row r="47" spans="1:5" ht="21">
       <c r="A47" s="8" t="s">
@@ -2743,7 +2758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21">
+    <row r="49" spans="1:4" ht="21">
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2754,7 +2769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21">
+    <row r="50" spans="1:4" ht="21">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
@@ -2765,7 +2780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21">
+    <row r="51" spans="1:4" ht="21">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
@@ -2776,7 +2791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21">
+    <row r="52" spans="1:4" ht="21">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -2787,7 +2802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21">
+    <row r="53" spans="1:4" ht="21">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2798,12 +2813,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21">
+    <row r="55" spans="1:4" ht="21">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
+    <row r="56" spans="1:4" ht="21">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
@@ -2813,8 +2828,9 @@
       <c r="C56" s="4" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="21">
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" spans="1:4" ht="21">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2822,10 +2838,11 @@
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="21">
+        <v>474</v>
+      </c>
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="1:4" ht="21">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
@@ -2833,10 +2850,11 @@
         <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="21">
+        <v>474</v>
+      </c>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="1:4" ht="21">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2847,7 +2865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21">
+    <row r="60" spans="1:4" ht="21">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
@@ -2857,8 +2875,9 @@
       <c r="C60" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="21">
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="1:4" ht="21">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2869,7 +2888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21">
+    <row r="62" spans="1:4" ht="21">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2880,7 +2899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21">
+    <row r="63" spans="1:4" ht="21">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2891,7 +2910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21">
+    <row r="64" spans="1:4" ht="21">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
@@ -3254,7 +3273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21">
+    <row r="97" spans="1:4" ht="21">
       <c r="A97" s="5" t="s">
         <v>53</v>
       </c>
@@ -3265,7 +3284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21">
+    <row r="98" spans="1:4" ht="21">
       <c r="A98" s="5" t="s">
         <v>53</v>
       </c>
@@ -3276,12 +3295,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="21">
+    <row r="100" spans="1:4" ht="21">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" ht="21">
+    <row r="101" spans="1:4" ht="21">
       <c r="A101" s="5" t="s">
         <v>97</v>
       </c>
@@ -3289,10 +3308,11 @@
         <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="21">
+        <v>474</v>
+      </c>
+      <c r="D101" s="11"/>
+    </row>
+    <row r="102" spans="1:4" ht="21">
       <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
@@ -3300,10 +3320,11 @@
         <v>99</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="21">
+        <v>474</v>
+      </c>
+      <c r="D102" s="11"/>
+    </row>
+    <row r="103" spans="1:4" ht="21">
       <c r="A103" s="5" t="s">
         <v>97</v>
       </c>
@@ -3311,10 +3332,11 @@
         <v>100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="21">
+        <v>474</v>
+      </c>
+      <c r="D103" s="11"/>
+    </row>
+    <row r="104" spans="1:4" ht="21">
       <c r="A104" s="5" t="s">
         <v>97</v>
       </c>
@@ -3325,7 +3347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21">
+    <row r="105" spans="1:4" ht="21">
       <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
@@ -3336,7 +3358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21">
+    <row r="106" spans="1:4" ht="21">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
@@ -3347,7 +3369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21">
+    <row r="107" spans="1:4" ht="21">
       <c r="A107" s="5" t="s">
         <v>97</v>
       </c>
@@ -3358,7 +3380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21">
+    <row r="108" spans="1:4" ht="21">
       <c r="A108" s="5" t="s">
         <v>97</v>
       </c>
@@ -3369,7 +3391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21">
+    <row r="109" spans="1:4" ht="21">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
@@ -3380,7 +3402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21">
+    <row r="110" spans="1:4" ht="21">
       <c r="A110" s="5" t="s">
         <v>97</v>
       </c>
@@ -3391,7 +3413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21">
+    <row r="111" spans="1:4" ht="21">
       <c r="A111" s="5" t="s">
         <v>97</v>
       </c>
@@ -3402,7 +3424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21">
+    <row r="112" spans="1:4" ht="21">
       <c r="A112" s="5" t="s">
         <v>97</v>
       </c>
